--- a/RC/ig/StructureDefinition-TDE-AuditEvent.xlsx
+++ b/RC/ig/StructureDefinition-TDE-AuditEvent.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://esante.gouv.fr/ci-sis/FHIR/StructureDefinition/TDE_AuditEvent</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_AuditEvent</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10</t>
+    <t>2025-12-11T14:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
